--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint_5_burndown_chart_Sprint_5_dias.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint_5_burndown_chart_Sprint_5_dias.xlsx
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -91,6 +91,11 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -228,8 +233,8 @@
     <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -359,11 +364,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="236531853"/>
-        <c:axId val="900846966"/>
+        <c:axId val="374073847"/>
+        <c:axId val="1177659575"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236531853"/>
+        <c:axId val="374073847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,10 +420,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="900846966"/>
+        <c:crossAx val="1177659575"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="900846966"/>
+        <c:axId val="1177659575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -482,7 +487,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236531853"/>
+        <c:crossAx val="374073847"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -855,10 +860,10 @@
         <v>6.0</v>
       </c>
       <c r="C5" s="14">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5" s="14">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -866,7 +871,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="18">
         <f t="shared" ref="I5:I16" si="1">SUM(C5:H5)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -879,19 +884,21 @@
         <v>7</v>
       </c>
       <c r="B6" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19">
-        <v>5.0</v>
-      </c>
+        <v>6.0</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="E6" s="19"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="20">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -909,14 +916,14 @@
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="20">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -933,15 +940,15 @@
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19">
-        <v>3.0</v>
-      </c>
+      <c r="E8" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="F8" s="19"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -958,15 +965,15 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
-        <v>3.0</v>
-      </c>
+      <c r="E9" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="F9" s="19"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
       <c r="I9" s="20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -979,19 +986,21 @@
         <v>11</v>
       </c>
       <c r="B10" s="13">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="19">
+        <v>2.0</v>
+      </c>
       <c r="G10" s="19">
         <v>4.0</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1004,19 +1013,21 @@
         <v>12</v>
       </c>
       <c r="B11" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="C11" s="17"/>
+        <v>6.0</v>
+      </c>
+      <c r="C11" s="19">
+        <v>4.0</v>
+      </c>
       <c r="D11" s="17"/>
       <c r="E11" s="19"/>
       <c r="F11" s="17"/>
       <c r="G11" s="19">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="20">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1139,31 +1150,31 @@
       <c r="A18" s="2"/>
       <c r="B18" s="3">
         <f>SUM(B5:B16)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3">
         <f>B18</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ref="D18:H18" si="2">C18-SUM(C5:C16)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="2"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1178,27 +1189,27 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ref="B19:G19" si="3">C18</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="3"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1212,27 +1223,27 @@
       <c r="A20" s="2"/>
       <c r="B20" s="3">
         <f>SUM(B5:B16)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(B5:B16)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ref="D20:H20" si="4">C20-(SUM($B$5:$B$16)/5)</f>
-        <v>26.4</v>
+        <v>28.8</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="4"/>
-        <v>19.8</v>
+        <v>21.6</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="4"/>
-        <v>13.2</v>
+        <v>14.4</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="4"/>
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="4"/>
@@ -1251,23 +1262,23 @@
       </c>
       <c r="B21" s="2">
         <f>B20</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ref="C21:G21" si="5">D20</f>
-        <v>26.4</v>
+        <v>28.8</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="5"/>
-        <v>19.8</v>
+        <v>21.6</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="5"/>
-        <v>13.2</v>
+        <v>14.4</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="5"/>
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="5"/>
